--- a/biology/Zoologie/Charlie_Dog/Charlie_Dog.xlsx
+++ b/biology/Zoologie/Charlie_Dog/Charlie_Dog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie Dog (Charlie le Chien) est un personnage des dessins animés Warner Bros Looney Tunes et des Merrie Melodies. Il a été créé par Bob Clampett et ses origines remonte à 1941. Les traits qu'on lui connait aujourd'hui sont la création de Chuck Jones, qui a repris et mieux définit le personnage comme de nombreux autres personnages des Looney Tunes, date de 1947.
 C'est Chuck Jones qui développera le personnage de Clampett, « Rover », en changeant son nom original pour « Charlie ». Little Orphan Airedale est alors le premier « vrai » dessin animé de Charlie Dog et obtient un succès tel que deux autres épisodes du duo Porky Pig/Charlie Dog sont créés en 1949. Le personnage de Charlie Dog a tellement de succès que Chuck Jones fait en sorte qu'il ait sa propre vie sans Porky. Mais seulement deux épisodes seront réalisés. Puis Charlie fera une apparition dans un épisode de Robert McKimson en 1958 et disparu totalement après ça, ayant probablement trouvé un maître.
